--- a/Test Case/Preethi/Bug_zoho.xlsx
+++ b/Test Case/Preethi/Bug_zoho.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="165">
   <si>
     <t>Sl No:</t>
   </si>
@@ -436,17 +436,114 @@
   <si>
     <t>Operating System:</t>
   </si>
+  <si>
+    <t>3) Select Menu&gt;&gt;Transaction&gt;&gt;Room Release</t>
+  </si>
+  <si>
+    <t>4) Verify list</t>
+  </si>
+  <si>
+    <t>Released Room details should be listed</t>
+  </si>
+  <si>
+    <t>No data is displaying</t>
+  </si>
+  <si>
+    <t>No data displaying in Room Release list</t>
+  </si>
+  <si>
+    <t>EQ1-I06</t>
+  </si>
+  <si>
+    <t>EQ1-I04</t>
+  </si>
+  <si>
+    <t>Search, Clear etc buttons in Admission pop up window is accessible in "Find Patient" pop up window</t>
+  </si>
+  <si>
+    <t>3) Select Menu&gt;&gt;Transaction&gt;&gt;Admission</t>
+  </si>
+  <si>
+    <t>4) Select "Search" button on bottom of the pop up window</t>
+  </si>
+  <si>
+    <t>5) Verify Find Patient pop up window</t>
+  </si>
+  <si>
+    <t>Search, Clear etc buttons in Admission pop up should not be visible in "Find Patient" pop up or in disabeled form</t>
+  </si>
+  <si>
+    <t>Search, Clear etc in Admission pop up is visible in "Find Patient" pop up</t>
+  </si>
+  <si>
+    <t>EQ1-I08</t>
+  </si>
+  <si>
+    <t>Search in "Find Patient" pop up is not working correctly</t>
+  </si>
+  <si>
+    <t>4) Select Search option</t>
+  </si>
+  <si>
+    <t>5) Select Admission date from as 01/03/2019 ,  Admission Date to as 13/06/2019 and click  Search Button</t>
+  </si>
+  <si>
+    <t>5) From the displayed list search using text box on top of the pop up window</t>
+  </si>
+  <si>
+    <t>Should display only the searched item from the list</t>
+  </si>
+  <si>
+    <t>unmatching result is displaying</t>
+  </si>
+  <si>
+    <t>EQ1-I09</t>
+  </si>
+  <si>
+    <t>Mobile number search is not working in "Find Patient"</t>
+  </si>
+  <si>
+    <t>4) Select "Search" option</t>
+  </si>
+  <si>
+    <t>5) Select "Admission from date" and "Admission to date"</t>
+  </si>
+  <si>
+    <t>6) Enter Patient Mobile number</t>
+  </si>
+  <si>
+    <t>7) Select "search" result</t>
+  </si>
+  <si>
+    <t>8) Verify Result</t>
+  </si>
+  <si>
+    <t>Should display IP Patients with the entered Mobile number</t>
+  </si>
+  <si>
+    <t>No result is displaying</t>
+  </si>
+  <si>
+    <t>EQ1-I12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,17 +609,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1310,6 +1408,147 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>568024</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558053</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>31937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3907377" y="51378971"/>
+          <a:ext cx="8674588" cy="4850466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14676</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151839</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>43143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1068" name="Picture 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3959147" y="64265735"/>
+          <a:ext cx="10031957" cy="4738408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>13688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41463</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1085" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3978089" y="73546688"/>
+          <a:ext cx="6877050" cy="3272437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1600,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B487"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" workbookViewId="0">
+    <sheetView topLeftCell="A492" workbookViewId="0">
       <selection activeCell="B475" sqref="B475:B477"/>
     </sheetView>
   </sheetViews>
@@ -2678,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F221"/>
+  <dimension ref="A2:F385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213:F221"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3127,6 +3366,9 @@
       <c r="C204" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D204" t="s">
+        <v>141</v>
+      </c>
       <c r="E204" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,6 +3468,461 @@
       </c>
       <c r="F221" s="7" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" s="1">
+        <v>7</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D252" t="s">
+        <v>140</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F252" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="E254" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="F255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="F256" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6">
+      <c r="F257" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6">
+      <c r="F258" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6">
+      <c r="E261" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6">
+      <c r="E262" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6">
+      <c r="E263" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6">
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="5:6">
+      <c r="E265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6">
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="5:6">
+      <c r="E267" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6">
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="5:6">
+      <c r="E269" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F269" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298" s="1">
+        <v>8</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298" t="s">
+        <v>148</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F298" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="E300" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="F301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="F302" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="F303" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="F304" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="F305" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="E307" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F307" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="E308" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F308" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="E309" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="E311" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F311" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="E313" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F313" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="E315" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F315" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B318" s="1">
+        <v>9</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318" t="s">
+        <v>155</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F318" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="E320" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="5:6">
+      <c r="F321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="5:6">
+      <c r="F322" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="323" spans="5:6">
+      <c r="F323" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="324" spans="5:6">
+      <c r="F324" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="325" spans="5:6">
+      <c r="F325" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="326" spans="5:6">
+      <c r="F326" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="328" spans="5:6">
+      <c r="E328" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="329" spans="5:6">
+      <c r="E329" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="330" spans="5:6">
+      <c r="E330" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F330" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="331" spans="5:6">
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="5:6">
+      <c r="E332" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F332" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="333" spans="5:6">
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="5:6">
+      <c r="E334" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="335" spans="5:6">
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" spans="5:6">
+      <c r="E336" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F336" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365" s="1">
+        <v>10</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D365" t="s">
+        <v>164</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F365" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="E367" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="F368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6">
+      <c r="F369" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6">
+      <c r="F370" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6">
+      <c r="F371" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="372" spans="5:6">
+      <c r="F372" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6">
+      <c r="F373" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="374" spans="5:6">
+      <c r="F374" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="375" spans="5:6">
+      <c r="F375" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="377" spans="5:6">
+      <c r="E377" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="378" spans="5:6">
+      <c r="E378" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F378" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="379" spans="5:6">
+      <c r="E379" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="380" spans="5:6">
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" spans="5:6">
+      <c r="E381" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6">
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" spans="5:6">
+      <c r="E383" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="384" spans="5:6">
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" spans="5:6">
+      <c r="E385" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F385" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/Preethi/Bug_zoho.xlsx
+++ b/Test Case/Preethi/Bug_zoho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="172">
   <si>
     <t>Sl No:</t>
   </si>
@@ -526,17 +526,45 @@
   <si>
     <t>EQ1-I12</t>
   </si>
+  <si>
+    <t>Doctor name is not listing in Care Desk Module</t>
+  </si>
+  <si>
+    <t>2) Select "Testing Marina" as hospital</t>
+  </si>
+  <si>
+    <t>3) Select Care Desk Module</t>
+  </si>
+  <si>
+    <t>4) Select Out-Patient tab</t>
+  </si>
+  <si>
+    <t>5) Verify "Change Doctor" drop dowm</t>
+  </si>
+  <si>
+    <t>All Doctors in "Testing Marina" should be listed</t>
+  </si>
+  <si>
+    <t>Dr. Raj Mohan in Testing Marina is not listing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,17 +637,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -647,8 +676,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -694,8 +723,8 @@
       <xdr:rowOff>10855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -825,8 +854,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>245</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -872,8 +901,8 @@
       <xdr:rowOff>179168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>291</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -919,8 +948,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>328</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -966,8 +995,8 @@
       <xdr:rowOff>129759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>371</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1013,8 +1042,8 @@
       <xdr:rowOff>35407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>418</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
@@ -1060,8 +1089,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>466</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -1107,8 +1136,8 @@
       <xdr:rowOff>73490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>502</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -1837,16 +1866,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="B475" sqref="B475:B477"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="J510" sqref="J510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2906,6 +2937,135 @@
       <c r="A487" s="3"/>
       <c r="B487" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B507" s="1"/>
+      <c r="C507" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F507" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="B509" s="1"/>
+      <c r="E509" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F509" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="B510" s="1"/>
+      <c r="F510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="B511" s="1"/>
+      <c r="F511" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="B512" s="1"/>
+      <c r="F512" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="513" spans="2:6">
+      <c r="B513" s="1"/>
+      <c r="F513" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="514" spans="2:6">
+      <c r="B514" s="1"/>
+      <c r="F514" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="515" spans="2:6">
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" spans="2:6">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" spans="2:6">
+      <c r="B517" s="1"/>
+      <c r="E517" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F517" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="518" spans="2:6">
+      <c r="B518" s="1"/>
+      <c r="E518" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F518" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="2:6">
+      <c r="B519" s="1"/>
+      <c r="E519" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F519" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="520" spans="2:6">
+      <c r="B520" s="1"/>
+      <c r="E520" s="3"/>
+    </row>
+    <row r="521" spans="2:6">
+      <c r="B521" s="1"/>
+      <c r="E521" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F521" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522" spans="2:6">
+      <c r="B522" s="1"/>
+      <c r="E522" s="3"/>
+    </row>
+    <row r="523" spans="2:6">
+      <c r="B523" s="1"/>
+      <c r="E523" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F523" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="524" spans="2:6">
+      <c r="B524" s="1"/>
+      <c r="E524" s="3"/>
+    </row>
+    <row r="525" spans="2:6">
+      <c r="B525" s="1"/>
+      <c r="E525" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F525" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2919,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A407" sqref="A407:F427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Test Case/Preethi/Bug_zoho.xlsx
+++ b/Test Case/Preethi/Bug_zoho.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="IP" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Store" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="keytitle" localSheetId="1">IP!$E$2</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
   <si>
     <t>Sl No:</t>
   </si>
@@ -547,17 +547,120 @@
   <si>
     <t>Dr. Raj Mohan in Testing Marina is not listing</t>
   </si>
+  <si>
+    <t>Cannot view items in Store Issue pop up window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Store" from Application selector
+3) Select "Hospital" , "Store"  from the dropdown and Click "Select" Button
+4) Go to "Pending Request Tab"
+5) Select any Request by clicking on it
+6) Verify generated "Store Issue" pop up window
+</t>
+  </si>
+  <si>
+    <t>Store Management</t>
+  </si>
+  <si>
+    <t>Should display Requested Item details in the "Store Issue" pop up window</t>
+  </si>
+  <si>
+    <t>Not displaying requested items in pop up window</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Screen Resolution: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1360x768
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Browser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Google Chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operating System: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Window 10, Windows 7</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,21 +740,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,6 +1697,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2238375" y="3944379"/>
+          <a:ext cx="9391650" cy="4294746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1868,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="J510" sqref="J510"/>
+    <sheetView topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="E517" sqref="E517:F519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3079,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F385"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:F427"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4094,12 +4262,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="1"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="120">
+      <c r="B3" s="1"/>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="1"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="1"/>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="1"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1"/>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="1"/>
+      <c r="E9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="E11" s="3"/>
+      <c r="F11" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="3"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="3"/>
+      <c r="F13" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>